--- a/src/com/qtpselenium/xls/Result.xlsx
+++ b/src/com/qtpselenium/xls/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
